--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231445</v>
+        <v>2081.958923981153</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>8.265616796420925</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.4899999999961</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.8000000000001</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.452887381969141</v>
+        <v>42.03150263852342</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.33301651610694</v>
+        <v>21.73438320357907</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>36.56872016525512</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.54711261803086</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.15133323620116</v>
+        <v>44.50132044556911</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,15 +1157,155 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.0549999999994</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7749999999994</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.6749999999994</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.3349999999994</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2849999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>139.2399999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.2450000000009</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.4349999999999</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.705</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.625</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.525000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.025</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.0549999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.7749999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.6749999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.3349999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>140.45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>132.2849999999999</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>139.2399999999999</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.2450000000009</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4349999999999</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1744,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0549999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77499999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.67499999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3349999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.44999999999999</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>32.28499999999985</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>39.23999999999987</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>43.24500000000086</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>44.43499999999986</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2412,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2467,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2478,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,7 +2489,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2410,6 +2550,61 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
